--- a/all_annotated/SYKE_Q1_2015_3.xlsx
+++ b/all_annotated/SYKE_Q1_2015_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmandapati/Desktop/VIP/Annotate/SubjECTive-QA/Tarun-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F0A70-7E9C-2F44-BD2C-4CD96BAD0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66347438-06CF-B847-8536-79AC4F6958DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36880" yWindow="1120" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Asker</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Well, FX impact, as in terms of it doesn't impact our operating margin at all. EPS is impacted by $0.08 for the FX year-over-year.</t>
-  </si>
-  <si>
-    <t>No, not really, It's just a revenue issue. Not rather a margin issue. You could see that the margin outlook remains unchanged.</t>
   </si>
 </sst>
 </file>
@@ -585,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1329,70 +1326,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
